--- a/filtered_df_lucas3.xlsx
+++ b/filtered_df_lucas3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>matchId</t>
   </si>
@@ -268,7 +268,7 @@
     <t>Watford</t>
   </si>
   <si>
-    <t>Rocco Vata</t>
+    <t>Kévin Keben</t>
   </si>
   <si>
     <t>away</t>
@@ -280,6 +280,12 @@
     <t>2025-2026</t>
   </si>
   <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
     <t>Swansea</t>
   </si>
   <si>
@@ -292,7 +298,16 @@
     <t>Millwall</t>
   </si>
   <si>
-    <t>Portsmouth</t>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>2025-08-09 vs Charlton</t>
+  </si>
+  <si>
+    <t>2025-08-16 vs QPR</t>
   </si>
   <si>
     <t>2025-08-23 vs Swansea</t>
@@ -307,7 +322,10 @@
     <t>2025-09-22 vs Millwall</t>
   </si>
   <si>
-    <t>2025-10-01 vs Portsmouth</t>
+    <t>2025-09-27 vs Hull</t>
+  </si>
+  <si>
+    <t>2025-10-04 vs Oxford</t>
   </si>
 </sst>
 </file>
@@ -669,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF6"/>
+  <dimension ref="A1:CF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,13 +946,13 @@
     </row>
     <row r="2" spans="1:84">
       <c r="A2" s="1">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1908613</v>
+        <v>1908321</v>
       </c>
       <c r="C2">
-        <v>454349</v>
+        <v>444726</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -949,170 +967,170 @@
         <v>85</v>
       </c>
       <c r="H2">
-        <v>6.12</v>
+        <v>6.51</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>85.56</v>
+      </c>
+      <c r="L2">
         <v>100</v>
       </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>53</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>60</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>76</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>5</v>
+      </c>
+      <c r="BE2">
+        <v>4</v>
+      </c>
+      <c r="BF2">
+        <v>80</v>
+      </c>
+      <c r="BG2">
+        <v>16</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
         <v>3</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>4</v>
-      </c>
-      <c r="AX2">
-        <v>1</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>2</v>
-      </c>
       <c r="BK2">
         <v>0</v>
       </c>
@@ -1138,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>50</v>
+        <v>88.3</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
         <v>100</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1174,21 +1192,21 @@
         <v>88</v>
       </c>
       <c r="CE2" s="2">
-        <v>45892</v>
+        <v>45878</v>
       </c>
       <c r="CF2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:84">
       <c r="A3" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1908412</v>
+        <v>1908612</v>
       </c>
       <c r="C3">
-        <v>454349</v>
+        <v>444726</v>
       </c>
       <c r="D3">
         <v>27</v>
@@ -1203,37 +1221,37 @@
         <v>86</v>
       </c>
       <c r="H3">
-        <v>6.69</v>
+        <v>6.3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>72.22</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1245,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1257,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1272,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1284,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1305,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1326,58 +1344,58 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>2</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
+        <v>6</v>
+      </c>
+      <c r="BE3">
         <v>4</v>
       </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
       <c r="BF3">
-        <v>25</v>
+        <v>66.7</v>
       </c>
       <c r="BG3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="BN3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -1392,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>72.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="BT3">
+        <v>66.7</v>
+      </c>
+      <c r="BU3">
         <v>100</v>
       </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
       <c r="BV3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -1413,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>1</v>
@@ -1428,21 +1446,21 @@
         <v>89</v>
       </c>
       <c r="CE3" s="2">
-        <v>45899</v>
+        <v>45885</v>
       </c>
       <c r="CF3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:84">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1908367</v>
+        <v>1908613</v>
       </c>
       <c r="C4">
-        <v>454349</v>
+        <v>444726</v>
       </c>
       <c r="D4">
         <v>27</v>
@@ -1454,40 +1472,40 @@
         <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4">
-        <v>6.25</v>
+        <v>6.43</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>77.78</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1499,139 +1517,139 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>27</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>33</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>52</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
         <v>5</v>
       </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>8</v>
-      </c>
-      <c r="AJ4">
-        <v>4</v>
-      </c>
-      <c r="AK4">
-        <v>10</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>3</v>
-      </c>
-      <c r="AS4">
-        <v>4</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>6</v>
+      </c>
+      <c r="BE4">
         <v>2</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>32</v>
-      </c>
-      <c r="AX4">
-        <v>4</v>
-      </c>
-      <c r="AY4">
-        <v>2</v>
-      </c>
-      <c r="AZ4">
-        <v>4</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>6</v>
-      </c>
-      <c r="BD4">
-        <v>3</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
       </c>
       <c r="BF4">
         <v>33.3</v>
       </c>
       <c r="BG4">
+        <v>10</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
         <v>6</v>
       </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
       <c r="BJ4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -1646,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>80</v>
+        <v>81.8</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BU4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -1667,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="s">
         <v>87</v>
@@ -1682,21 +1700,21 @@
         <v>90</v>
       </c>
       <c r="CE4" s="2">
-        <v>45913</v>
+        <v>45892</v>
       </c>
       <c r="CF4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:84">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1908363</v>
+        <v>1908412</v>
       </c>
       <c r="C5">
-        <v>454349</v>
+        <v>444726</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -1708,10 +1726,10 @@
         <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>5.98</v>
+        <v>6.2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1720,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>90.23</v>
+      </c>
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1741,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1756,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1774,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1792,38 +1810,38 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
+        <v>45</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
         <v>2</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AT5">
         <v>0</v>
       </c>
@@ -1834,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="AW5">
+        <v>58</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
         <v>4</v>
       </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -1852,28 +1870,28 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -1900,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="BS5">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
         <v>50</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -1936,21 +1954,21 @@
         <v>91</v>
       </c>
       <c r="CE5" s="2">
-        <v>45922</v>
+        <v>45899</v>
       </c>
       <c r="CF5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:84">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1908421</v>
+        <v>1908367</v>
       </c>
       <c r="C6">
-        <v>454349</v>
+        <v>444726</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -1962,40 +1980,40 @@
         <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6">
-        <v>7.18</v>
+        <v>6.45</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>63.64</v>
+        <v>68.52</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2004,82 +2022,82 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
         <v>3</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>3</v>
-      </c>
-      <c r="Z6">
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>41</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>54</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>2</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>4</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>7</v>
-      </c>
-      <c r="AJ6">
+      <c r="AQ6">
         <v>2</v>
       </c>
-      <c r="AK6">
-        <v>11</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>2</v>
-      </c>
-      <c r="AP6">
-        <v>3</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -2088,37 +2106,37 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="AX6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BG6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -2130,55 +2148,55 @@
         <v>3</v>
       </c>
       <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0.12</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0.06899999999999999</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="BT6">
+        <v>50</v>
+      </c>
+      <c r="BU6">
+        <v>50</v>
+      </c>
+      <c r="BV6">
+        <v>100</v>
+      </c>
+      <c r="BW6">
+        <v>100</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>100</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
         <v>2</v>
-      </c>
-      <c r="BL6">
-        <v>2</v>
-      </c>
-      <c r="BM6">
-        <v>0.151</v>
-      </c>
-      <c r="BN6">
-        <v>31</v>
-      </c>
-      <c r="BO6">
-        <v>0.13955</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <v>2</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>63.6</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>33.3</v>
-      </c>
-      <c r="BV6">
-        <v>50</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>66.7</v>
-      </c>
-      <c r="BY6">
-        <v>50</v>
-      </c>
-      <c r="BZ6">
-        <v>2</v>
-      </c>
-      <c r="CA6">
-        <v>5</v>
       </c>
       <c r="CB6" t="s">
         <v>87</v>
@@ -2190,10 +2208,772 @@
         <v>92</v>
       </c>
       <c r="CE6" s="2">
-        <v>45931</v>
+        <v>45913</v>
       </c>
       <c r="CF6" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1908363</v>
+      </c>
+      <c r="C7">
+        <v>444726</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7">
+        <v>6.21</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>83.01000000000001</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>79</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>67</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>79</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>94</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>16</v>
+      </c>
+      <c r="BE7">
+        <v>9</v>
+      </c>
+      <c r="BF7">
+        <v>56.2</v>
+      </c>
+      <c r="BG7">
+        <v>19</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>5</v>
+      </c>
+      <c r="BJ7">
+        <v>5</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>84.8</v>
+      </c>
+      <c r="BT7">
+        <v>40</v>
+      </c>
+      <c r="BU7">
+        <v>100</v>
+      </c>
+      <c r="BV7">
+        <v>100</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>45922</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1908607</v>
+      </c>
+      <c r="C8">
+        <v>444726</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8">
+        <v>6.35</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>91.27</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>33</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>36</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>57</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>3</v>
+      </c>
+      <c r="BE8">
+        <v>3</v>
+      </c>
+      <c r="BF8">
+        <v>100</v>
+      </c>
+      <c r="BG8">
+        <v>11</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>15</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>91.7</v>
+      </c>
+      <c r="BT8">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>45927</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1908457</v>
+      </c>
+      <c r="C9">
+        <v>444726</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9">
+        <v>6.25</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>90.62</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>49</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>45</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>49</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>4</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>50</v>
+      </c>
+      <c r="BG9">
+        <v>17</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>15</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>91.8</v>
+      </c>
+      <c r="BT9">
+        <v>66.7</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>100</v>
+      </c>
+      <c r="BW9">
+        <v>100</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>45934</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
